--- a/paper/ensemble.xlsx
+++ b/paper/ensemble.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahnesser/Documents/Harvard/Research/TROPOMI_Inversion/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C35E7C6-11A9-784F-AF27-C15822F6E7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF7DC59-D0EC-4E48-ACD1-E8B7431EEC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="1560" windowWidth="26840" windowHeight="15940" xr2:uid="{AF5F5901-C87C-1141-A413-FE18185097D6}"/>
+    <workbookView xWindow="-30180" yWindow="1580" windowWidth="26840" windowHeight="15940" xr2:uid="{AF5F5901-C87C-1141-A413-FE18185097D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,36 +45,6 @@
   </si>
   <si>
     <r>
-      <t>Regularization factor</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Prior error standard deviation</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Optimized grid cells</t>
     </r>
     <r>
@@ -93,6 +63,12 @@
   </si>
   <si>
     <t>Latitude correction</t>
+  </si>
+  <si>
+    <t>Prior error standard deviation</t>
+  </si>
+  <si>
+    <t>Regularization factor</t>
   </si>
 </sst>
 </file>
@@ -316,64 +292,64 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,172 +668,170 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="45">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="43">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>4</v>
-      </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="7">
         <v>0.2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="7">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="E3" s="6">
+        <v>5661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1">
+      <c r="A4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21">
         <v>0.5</v>
       </c>
-      <c r="E2" s="15">
-        <v>3692</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="D4" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="23">
         <v>0.75</v>
       </c>
-      <c r="E3" s="13">
-        <v>5661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1">
-      <c r="A4" s="14" t="s">
+      <c r="D5" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1">
+      <c r="A7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1">
+      <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="6">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D4" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="15">
-        <v>3435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="E5" s="18">
-        <v>5327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13">
-        <v>6067</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1">
-      <c r="A7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="15">
-        <v>3443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="E8" s="13">
-        <v>5476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1">
-      <c r="A9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="E9" s="6">
         <v>4759</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="50" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="50" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
